--- a/ProjectSCAM/ProjectSCAM/Models/Logic/BatchReports/BatchReport1.xlsx
+++ b/ProjectSCAM/ProjectSCAM/Models/Logic/BatchReports/BatchReport1.xlsx
@@ -393,13 +393,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>4</v>
